--- a/ePICreator/empty-template.xlsx
+++ b/ePICreator/empty-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/vulcan-eproduct-info/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62655C1A-720D-4947-B591-814B78B64358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CF7DDA-C538-914F-A29D-61EF416278AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="6" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="7" xr2:uid="{0EBB815D-796F-C248-AC7C-E52173F2F74B}"/>
   </bookViews>
   <sheets>
     <sheet name="AdministrableProductDefinition" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="161">
   <si>
     <t>id</t>
   </si>
@@ -193,9 +193,6 @@
   </si>
   <si>
     <t>Packaging_type</t>
-  </si>
-  <si>
-    <t>packaging.quantity</t>
   </si>
   <si>
     <t>packaging_material</t>
@@ -876,6 +873,27 @@
   </si>
   <si>
     <t>address_postalCode</t>
+  </si>
+  <si>
+    <t>inside_packaging_identifier</t>
+  </si>
+  <si>
+    <t>inside_packaging_type</t>
+  </si>
+  <si>
+    <t>inside_packaging_typeID</t>
+  </si>
+  <si>
+    <t>inside_packaging_quantity</t>
+  </si>
+  <si>
+    <t>inside_packaging_material</t>
+  </si>
+  <si>
+    <t>inside_packaging_materialID</t>
+  </si>
+  <si>
+    <t>packaging_quantity</t>
   </si>
 </sst>
 </file>
@@ -997,7 +1015,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1285,7 +1303,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1327,25 +1345,25 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K1" t="s">
         <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M1" t="s">
         <v>12</v>
@@ -1354,7 +1372,7 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1426,31 +1444,31 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" t="s">
         <v>109</v>
       </c>
-      <c r="F1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" t="s">
         <v>57</v>
-      </c>
-      <c r="J1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L1" t="s">
-        <v>111</v>
-      </c>
-      <c r="M1" t="s">
-        <v>58</v>
       </c>
       <c r="N1" t="s">
         <v>12</v>
@@ -1459,37 +1477,37 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" t="s">
         <v>60</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>61</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>62</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>63</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>64</v>
       </c>
-      <c r="K2" t="s">
-        <v>65</v>
-      </c>
       <c r="L2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -1519,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
         <v>69</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>70</v>
-      </c>
-      <c r="D1" t="s">
-        <v>71</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -1536,16 +1554,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1576,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D1" t="s">
         <v>13</v>
@@ -1588,7 +1606,7 @@
         <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H1" t="s">
         <v>12</v>
@@ -1645,37 +1663,37 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" t="s">
         <v>122</v>
       </c>
-      <c r="K1" t="s">
-        <v>123</v>
-      </c>
       <c r="L1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P1" t="s">
         <v>12</v>
@@ -1687,41 +1705,41 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="K2" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1765,13 +1783,13 @@
         <v>18</v>
       </c>
       <c r="E1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" t="s">
         <v>83</v>
       </c>
-      <c r="F1" t="s">
-        <v>84</v>
-      </c>
       <c r="G1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -1795,7 +1813,7 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -1815,7 +1833,7 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
@@ -1835,7 +1853,7 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
@@ -1847,10 +1865,10 @@
         <v>72072</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
@@ -1931,13 +1949,13 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I1" t="s">
         <v>12</v>
@@ -1946,7 +1964,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -2026,7 +2044,7 @@
         <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K1" t="s">
         <v>35</v>
@@ -2038,31 +2056,31 @@
         <v>36</v>
       </c>
       <c r="N1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" t="s">
         <v>88</v>
-      </c>
-      <c r="O1" t="s">
-        <v>89</v>
       </c>
       <c r="P1" t="s">
         <v>13</v>
       </c>
       <c r="Q1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T1" t="s">
+        <v>149</v>
+      </c>
+      <c r="U1" t="s">
         <v>150</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>151</v>
-      </c>
-      <c r="V1" t="s">
-        <v>152</v>
       </c>
       <c r="W1" t="s">
         <v>12</v>
@@ -2071,16 +2089,16 @@
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" t="s">
         <v>147</v>
-      </c>
-      <c r="E2" t="s">
-        <v>148</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -2092,13 +2110,13 @@
         <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J2" t="s">
         <v>39</v>
       </c>
       <c r="K2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L2" t="s">
         <v>8</v>
@@ -2113,13 +2131,13 @@
         <v>11</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S2" s="10">
         <v>100000000000</v>
@@ -2135,8 +2153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1B07EB-5F76-7E4B-ABAA-4F88BE5E2A71}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2161,28 +2179,28 @@
         <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" t="s">
         <v>97</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>98</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>99</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>100</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>101</v>
       </c>
-      <c r="L1" t="s">
-        <v>102</v>
-      </c>
       <c r="M1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N1" t="s">
         <v>12</v>
@@ -2191,7 +2209,7 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
@@ -2206,7 +2224,7 @@
         <v>220000000034</v>
       </c>
       <c r="G2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H2" t="s">
         <v>44</v>
@@ -2215,7 +2233,7 @@
         <v>45</v>
       </c>
       <c r="J2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K2" t="s">
         <v>46</v>
@@ -2231,10 +2249,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185E689D-306D-3A44-A772-E9755EF7D37C}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:Q1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2256,7 +2274,7 @@
     <col min="17" max="17" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2270,61 +2288,79 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H1" t="s">
         <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J1" t="s">
         <v>48</v>
       </c>
       <c r="K1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" t="s">
+        <v>160</v>
+      </c>
+      <c r="M1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" t="s">
         <v>106</v>
       </c>
-      <c r="L1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N1" t="s">
-        <v>107</v>
-      </c>
       <c r="O1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q1" t="s">
+        <v>154</v>
+      </c>
+      <c r="R1" t="s">
+        <v>155</v>
+      </c>
+      <c r="S1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U1" t="s">
+        <v>158</v>
+      </c>
+      <c r="V1" t="s">
+        <v>159</v>
+      </c>
+      <c r="W1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" t="s">
         <v>52</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" t="s">
-        <v>53</v>
       </c>
       <c r="G2" s="2">
         <v>100000155527</v>
@@ -2336,7 +2372,7 @@
         <v>123456</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K2" s="2">
         <v>100000073496</v>
@@ -2345,7 +2381,7 @@
         <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N2">
         <v>200000003222</v>
@@ -2381,22 +2417,22 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G1" t="s">
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K1" t="s">
         <v>12</v>
@@ -2405,28 +2441,28 @@
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H2" s="2">
         <v>100000072062</v>
       </c>
       <c r="I2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J2" t="s">
         <v>38</v>
